--- a/data_for_es2.xlsx
+++ b/data_for_es2.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BERGEN\RStudio-Projects\Abalone\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{964C3B51-DB57-4A77-86BE-377288E5CC70}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27045" windowHeight="10035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27045" windowHeight="10035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
   <si>
     <t>syn</t>
   </si>
@@ -132,16 +133,28 @@
   </si>
   <si>
     <t>ratio2</t>
+  </si>
+  <si>
+    <t>angle_str_hd_cr</t>
+  </si>
+  <si>
+    <t>angle_str_tr_cr</t>
+  </si>
+  <si>
+    <t>angle_str_hd_mon</t>
+  </si>
+  <si>
+    <t>angle_str_tr_mon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +186,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -194,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -213,6 +231,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,16 +545,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="P12" sqref="P12:Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -575,8 +594,20 @@
       <c r="M1" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -616,8 +647,20 @@
       <c r="M2" s="4">
         <v>2.23</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="7">
+        <v>34.5</v>
+      </c>
+      <c r="O2" s="7">
+        <v>9</v>
+      </c>
+      <c r="P2" s="8">
+        <v>-2.88</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>59.81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -657,8 +700,20 @@
       <c r="M3" s="4">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="7">
+        <v>44.639000000000003</v>
+      </c>
+      <c r="O3" s="7">
+        <v>-2.411</v>
+      </c>
+      <c r="P3" s="8">
+        <v>54.2</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -698,8 +753,20 @@
       <c r="M4" s="4">
         <v>1.36</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="7">
+        <v>29.35</v>
+      </c>
+      <c r="O4" s="7">
+        <v>21.95</v>
+      </c>
+      <c r="P4" s="8">
+        <v>5.52</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>7.63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -739,8 +806,20 @@
       <c r="M5" s="6">
         <v>1.58</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="O5" s="7">
+        <v>16.739999999999998</v>
+      </c>
+      <c r="P5" s="8">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>43.82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -780,8 +859,20 @@
       <c r="M6" s="5">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="7">
+        <v>-7.5</v>
+      </c>
+      <c r="O6" s="7">
+        <v>57.1</v>
+      </c>
+      <c r="P6" s="8">
+        <v>1.6759999999999999</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>15.67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -821,8 +912,20 @@
       <c r="M7" s="4">
         <v>1.22</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="7">
+        <v>28.8</v>
+      </c>
+      <c r="O7" s="7">
+        <v>24.4</v>
+      </c>
+      <c r="P7" s="8">
+        <v>36.28</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>25.32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
@@ -862,8 +965,20 @@
       <c r="M8" s="4">
         <v>1.62</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="7">
+        <v>29.79</v>
+      </c>
+      <c r="O8" s="7">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="P8" s="8">
+        <v>52.85</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>9.85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
@@ -903,8 +1018,20 @@
       <c r="M9" s="6">
         <v>5.27</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="7">
+        <v>0.69999999999999896</v>
+      </c>
+      <c r="O9" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="P9" s="8">
+        <v>42.03</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>7.33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
@@ -944,8 +1071,20 @@
       <c r="M10" s="5">
         <v>3.73</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="7">
+        <v>11.9</v>
+      </c>
+      <c r="O10" s="7">
+        <v>49.555</v>
+      </c>
+      <c r="P10" s="8">
+        <v>-14.7</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>-5.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -985,8 +1124,20 @@
       <c r="M11" s="5">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="7">
+        <v>4.25</v>
+      </c>
+      <c r="O11" s="7">
+        <v>78.11</v>
+      </c>
+      <c r="P11" s="8">
+        <v>4.2949999999999999</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>55.765000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -1026,8 +1177,20 @@
       <c r="M12" s="6">
         <v>2.23</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="O12" s="7">
+        <v>13.77</v>
+      </c>
+      <c r="P12" s="8">
+        <v>5.38</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1067,8 +1230,20 @@
       <c r="M13" s="4">
         <v>1.91</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="7">
+        <v>31.1</v>
+      </c>
+      <c r="O13" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="P13" s="8">
+        <v>61.98</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>9.5286000000000008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1283,20 @@
       <c r="M14" s="4">
         <v>3.93</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="7">
+        <v>53.46</v>
+      </c>
+      <c r="O14" s="7">
+        <v>6.9000000000000101</v>
+      </c>
+      <c r="P14" s="8">
+        <v>24.25</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>7.02</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1149,8 +1336,20 @@
       <c r="M15" s="6">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="7">
+        <v>21.07</v>
+      </c>
+      <c r="O15" s="7">
+        <v>21.69</v>
+      </c>
+      <c r="P15" s="8">
+        <v>-2.0059999999999998</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
@@ -1190,8 +1389,20 @@
       <c r="M16" s="6">
         <v>3.08</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="7">
+        <v>-2.0699999999999998</v>
+      </c>
+      <c r="O16" s="7">
+        <v>9.98</v>
+      </c>
+      <c r="P16" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>18.52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -1231,8 +1442,20 @@
       <c r="M17" s="6">
         <v>1.99</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="7">
+        <v>-18.27</v>
+      </c>
+      <c r="O17" s="7">
+        <v>9.02</v>
+      </c>
+      <c r="P17" s="8">
+        <v>1.37</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>44.66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
@@ -1272,8 +1495,20 @@
       <c r="M18" s="6">
         <v>1.07</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="7">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="O18" s="7">
+        <v>21.25</v>
+      </c>
+      <c r="P18" s="8">
+        <v>44.29</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
@@ -1313,8 +1548,20 @@
       <c r="M19" s="4">
         <v>1.54</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="7">
+        <v>-48.06</v>
+      </c>
+      <c r="O19" s="7">
+        <v>7.44</v>
+      </c>
+      <c r="P19" s="8">
+        <v>54.23</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>9.33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
@@ -1354,8 +1601,20 @@
       <c r="M20" s="6">
         <v>2.93</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="7">
+        <v>-6.2</v>
+      </c>
+      <c r="O20" s="7">
+        <v>8.41</v>
+      </c>
+      <c r="P20" s="8">
+        <v>6.59</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>11</v>
       </c>
@@ -1394,6 +1653,18 @@
       </c>
       <c r="M21" s="5">
         <v>4.43</v>
+      </c>
+      <c r="N21" s="7">
+        <v>6.66</v>
+      </c>
+      <c r="O21" s="7">
+        <v>51.45</v>
+      </c>
+      <c r="P21" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>45.15</v>
       </c>
     </row>
   </sheetData>
